--- a/biology/Zoologie/Emmenomma_oculatum/Emmenomma_oculatum.xlsx
+++ b/biology/Zoologie/Emmenomma_oculatum/Emmenomma_oculatum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Emmenomma oculatum est une espèce d'araignées aranéomorphes de la famille des Macrobunidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Emmenomma oculatum est une espèce d'araignées aranéomorphes de la famille des Macrobunidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Argentine dans la province de Terre de Feu, au Chili dans la région de Magallanes et aux îles Malouines[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Argentine dans la province de Terre de Feu, au Chili dans la région de Magallanes et aux îles Malouines,.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle mesure 3,9 mm et celle de la femelle 4,3 mm et l'abdomen 6 mm[3].
-Les mâles mesurent de 5,75 à 7,20 mm et les femelles de 8,20 à 10,60 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle mesure 3,9 mm et celle de la femelle 4,3 mm et l'abdomen 6 mm.
+Les mâles mesurent de 5,75 à 7,20 mm et les femelles de 8,20 à 10,60 mm.
 </t>
         </is>
       </c>
@@ -574,11 +590,13 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a été décrite par Simon en 1884.
-Emmenomma falklandicum[4] a été placée en synonymie par Roth en 1967[5].
-Emmenomma beauchenicum[6] a été placée en synonymie par Almeida-Silva, Griswold et Brescovit en 2015[2].
+Emmenomma falklandicum a été placée en synonymie par Roth en 1967.
+Emmenomma beauchenicum a été placée en synonymie par Almeida-Silva, Griswold et Brescovit en 2015.
 </t>
         </is>
       </c>
@@ -607,7 +625,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Simon, 1884 : « Arachnides recueillis par la Mission du Cap Horn en 1882-1883. » Bulletin de la Société zoologique de France, vol. 9, p. 117-144 (texte intégral).</t>
         </is>
